--- a/natmiOut/OldD7/LR-pairs_lrc2p/Pdgfb-Pdgfrb.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Pdgfb-Pdgfrb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Pdgfrb</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>52.4353069452247</v>
+        <v>53.435824</v>
       </c>
       <c r="H2">
-        <v>52.4353069452247</v>
+        <v>160.307472</v>
       </c>
       <c r="I2">
-        <v>0.8185117612107484</v>
+        <v>0.8055519732580867</v>
       </c>
       <c r="J2">
-        <v>0.8185117612107484</v>
+        <v>0.8055519732580868</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.9759103192808</v>
+        <v>23.463916</v>
       </c>
       <c r="N2">
-        <v>16.9759103192808</v>
+        <v>70.39174800000001</v>
       </c>
       <c r="O2">
-        <v>0.1304071842815303</v>
+        <v>0.1350973942042957</v>
       </c>
       <c r="P2">
-        <v>0.1304071842815303</v>
+        <v>0.1350973942042957</v>
       </c>
       <c r="Q2">
-        <v>890.1370682660962</v>
+        <v>1253.813685726784</v>
       </c>
       <c r="R2">
-        <v>890.1370682660962</v>
+        <v>11284.32317154106</v>
       </c>
       <c r="S2">
-        <v>0.10673981408081</v>
+        <v>0.108827972483296</v>
       </c>
       <c r="T2">
-        <v>0.10673981408081</v>
+        <v>0.108827972483296</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>52.4353069452247</v>
+        <v>53.435824</v>
       </c>
       <c r="H3">
-        <v>52.4353069452247</v>
+        <v>160.307472</v>
       </c>
       <c r="I3">
-        <v>0.8185117612107484</v>
+        <v>0.8055519732580867</v>
       </c>
       <c r="J3">
-        <v>0.8185117612107484</v>
+        <v>0.8055519732580868</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>87.7771907232728</v>
+        <v>87.90742766666666</v>
       </c>
       <c r="N3">
-        <v>87.7771907232728</v>
+        <v>263.722283</v>
       </c>
       <c r="O3">
-        <v>0.6742952849700149</v>
+        <v>0.5061416180048238</v>
       </c>
       <c r="P3">
-        <v>0.6742952849700149</v>
+        <v>0.5061416180048238</v>
       </c>
       <c r="Q3">
-        <v>4602.62393836434</v>
+        <v>4697.405833088731</v>
       </c>
       <c r="R3">
-        <v>4602.62393836434</v>
+        <v>42276.65249779858</v>
       </c>
       <c r="S3">
-        <v>0.5519186212769104</v>
+        <v>0.4077233791318265</v>
       </c>
       <c r="T3">
-        <v>0.5519186212769104</v>
+        <v>0.4077233791318266</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>52.4353069452247</v>
+        <v>53.435824</v>
       </c>
       <c r="H4">
-        <v>52.4353069452247</v>
+        <v>160.307472</v>
       </c>
       <c r="I4">
-        <v>0.8185117612107484</v>
+        <v>0.8055519732580867</v>
       </c>
       <c r="J4">
-        <v>0.8185117612107484</v>
+        <v>0.8055519732580868</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>25.4230883507567</v>
+        <v>0.06395099999999999</v>
       </c>
       <c r="N4">
-        <v>25.4230883507567</v>
+        <v>0.191853</v>
       </c>
       <c r="O4">
-        <v>0.1952975307484549</v>
+        <v>0.0003682085060634768</v>
       </c>
       <c r="P4">
-        <v>0.1952975307484549</v>
+        <v>0.0003682085060634769</v>
       </c>
       <c r="Q4">
-        <v>1333.067441167494</v>
+        <v>3.417274380624</v>
       </c>
       <c r="R4">
-        <v>1333.067441167494</v>
+        <v>30.755469425616</v>
       </c>
       <c r="S4">
-        <v>0.1598533258530281</v>
+        <v>0.0002966110886298459</v>
       </c>
       <c r="T4">
-        <v>0.1598533258530281</v>
+        <v>0.000296611088629846</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.63023174048462</v>
+        <v>53.435824</v>
       </c>
       <c r="H5">
-        <v>9.63023174048462</v>
+        <v>160.307472</v>
       </c>
       <c r="I5">
-        <v>0.1503272966630278</v>
+        <v>0.8055519732580867</v>
       </c>
       <c r="J5">
-        <v>0.1503272966630278</v>
+        <v>0.8055519732580868</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.9759103192808</v>
+        <v>62.24619000000001</v>
       </c>
       <c r="N5">
-        <v>16.9759103192808</v>
+        <v>186.73857</v>
       </c>
       <c r="O5">
-        <v>0.1304071842815303</v>
+        <v>0.3583927792848171</v>
       </c>
       <c r="P5">
-        <v>0.1304071842815303</v>
+        <v>0.3583927792848171</v>
       </c>
       <c r="Q5">
-        <v>163.4819503803583</v>
+        <v>3326.17645351056</v>
       </c>
       <c r="R5">
-        <v>163.4819503803583</v>
+        <v>29935.58808159504</v>
       </c>
       <c r="S5">
-        <v>0.01960375947847974</v>
+        <v>0.2887040105543343</v>
       </c>
       <c r="T5">
-        <v>0.01960375947847974</v>
+        <v>0.2887040105543344</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>9.63023174048462</v>
+        <v>0.03171066666666666</v>
       </c>
       <c r="H6">
-        <v>9.63023174048462</v>
+        <v>0.09513199999999999</v>
       </c>
       <c r="I6">
-        <v>0.1503272966630278</v>
+        <v>0.0004780424103998614</v>
       </c>
       <c r="J6">
-        <v>0.1503272966630278</v>
+        <v>0.0004780424103998615</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>87.7771907232728</v>
+        <v>23.463916</v>
       </c>
       <c r="N6">
-        <v>87.7771907232728</v>
+        <v>70.39174800000001</v>
       </c>
       <c r="O6">
-        <v>0.6742952849700149</v>
+        <v>0.1350973942042957</v>
       </c>
       <c r="P6">
-        <v>0.6742952849700149</v>
+        <v>0.1350973942042957</v>
       </c>
       <c r="Q6">
-        <v>845.3146881938338</v>
+        <v>0.7440564189706667</v>
       </c>
       <c r="R6">
-        <v>845.3146881938338</v>
+        <v>6.696507770736</v>
       </c>
       <c r="S6">
-        <v>0.1013649873421683</v>
+        <v>6.458228396416177E-05</v>
       </c>
       <c r="T6">
-        <v>0.1013649873421683</v>
+        <v>6.458228396416178E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,185 +832,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>9.63023174048462</v>
+        <v>0.03171066666666666</v>
       </c>
       <c r="H7">
-        <v>9.63023174048462</v>
+        <v>0.09513199999999999</v>
       </c>
       <c r="I7">
-        <v>0.1503272966630278</v>
+        <v>0.0004780424103998614</v>
       </c>
       <c r="J7">
-        <v>0.1503272966630278</v>
+        <v>0.0004780424103998615</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.4230883507567</v>
+        <v>87.90742766666666</v>
       </c>
       <c r="N7">
-        <v>25.4230883507567</v>
+        <v>263.722283</v>
       </c>
       <c r="O7">
-        <v>0.1952975307484549</v>
+        <v>0.5061416180048238</v>
       </c>
       <c r="P7">
-        <v>0.1952975307484549</v>
+        <v>0.5061416180048238</v>
       </c>
       <c r="Q7">
-        <v>244.8302323766019</v>
+        <v>2.787603136261778</v>
       </c>
       <c r="R7">
-        <v>244.8302323766019</v>
+        <v>25.088428226356</v>
       </c>
       <c r="S7">
-        <v>0.02935854984237977</v>
+        <v>0.0002419571590747119</v>
       </c>
       <c r="T7">
-        <v>0.02935854984237977</v>
+        <v>0.0002419571590747119</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>1.9962249078425</v>
+        <v>0.03171066666666666</v>
       </c>
       <c r="H8">
-        <v>1.9962249078425</v>
+        <v>0.09513199999999999</v>
       </c>
       <c r="I8">
-        <v>0.03116094212622382</v>
+        <v>0.0004780424103998614</v>
       </c>
       <c r="J8">
-        <v>0.03116094212622382</v>
+        <v>0.0004780424103998615</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>16.9759103192808</v>
+        <v>0.06395099999999999</v>
       </c>
       <c r="N8">
-        <v>16.9759103192808</v>
+        <v>0.191853</v>
       </c>
       <c r="O8">
-        <v>0.1304071842815303</v>
+        <v>0.0003682085060634768</v>
       </c>
       <c r="P8">
-        <v>0.1304071842815303</v>
+        <v>0.0003682085060634769</v>
       </c>
       <c r="Q8">
-        <v>33.88773501264886</v>
+        <v>0.002027928844</v>
       </c>
       <c r="R8">
-        <v>33.88773501264886</v>
+        <v>0.018251359596</v>
       </c>
       <c r="S8">
-        <v>0.004063610722240568</v>
+        <v>1.760192817683165E-07</v>
       </c>
       <c r="T8">
-        <v>0.004063610722240568</v>
+        <v>1.760192817683165E-07</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>1.9962249078425</v>
+        <v>0.03171066666666666</v>
       </c>
       <c r="H9">
-        <v>1.9962249078425</v>
+        <v>0.09513199999999999</v>
       </c>
       <c r="I9">
-        <v>0.03116094212622382</v>
+        <v>0.0004780424103998614</v>
       </c>
       <c r="J9">
-        <v>0.03116094212622382</v>
+        <v>0.0004780424103998615</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>87.7771907232728</v>
+        <v>62.24619000000001</v>
       </c>
       <c r="N9">
-        <v>87.7771907232728</v>
+        <v>186.73857</v>
       </c>
       <c r="O9">
-        <v>0.6742952849700149</v>
+        <v>0.3583927792848171</v>
       </c>
       <c r="P9">
-        <v>0.6742952849700149</v>
+        <v>0.3583927792848171</v>
       </c>
       <c r="Q9">
-        <v>175.2230144622388</v>
+        <v>1.97386818236</v>
       </c>
       <c r="R9">
-        <v>175.2230144622388</v>
+        <v>17.76481364124</v>
       </c>
       <c r="S9">
-        <v>0.02101167635093623</v>
+        <v>0.0001713269480792195</v>
       </c>
       <c r="T9">
-        <v>0.02101167635093623</v>
+        <v>0.0001713269480792195</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>10.73549533333333</v>
+      </c>
+      <c r="H10">
+        <v>32.206486</v>
+      </c>
+      <c r="I10">
+        <v>0.1618389837063174</v>
+      </c>
+      <c r="J10">
+        <v>0.1618389837063175</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>23.463916</v>
+      </c>
+      <c r="N10">
+        <v>70.39174800000001</v>
+      </c>
+      <c r="O10">
+        <v>0.1350973942042957</v>
+      </c>
+      <c r="P10">
+        <v>0.1350973942042957</v>
+      </c>
+      <c r="Q10">
+        <v>251.8967607197253</v>
+      </c>
+      <c r="R10">
+        <v>2267.070846477528</v>
+      </c>
+      <c r="S10">
+        <v>0.02186402497939495</v>
+      </c>
+      <c r="T10">
+        <v>0.02186402497939496</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>10.73549533333333</v>
+      </c>
+      <c r="H11">
+        <v>32.206486</v>
+      </c>
+      <c r="I11">
+        <v>0.1618389837063174</v>
+      </c>
+      <c r="J11">
+        <v>0.1618389837063175</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>87.90742766666666</v>
+      </c>
+      <c r="N11">
+        <v>263.722283</v>
+      </c>
+      <c r="O11">
+        <v>0.5061416180048238</v>
+      </c>
+      <c r="P11">
+        <v>0.5061416180048238</v>
+      </c>
+      <c r="Q11">
+        <v>943.7297794808375</v>
+      </c>
+      <c r="R11">
+        <v>8493.568015327537</v>
+      </c>
+      <c r="S11">
+        <v>0.08191344506937183</v>
+      </c>
+      <c r="T11">
+        <v>0.08191344506937184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>10.73549533333333</v>
+      </c>
+      <c r="H12">
+        <v>32.206486</v>
+      </c>
+      <c r="I12">
+        <v>0.1618389837063174</v>
+      </c>
+      <c r="J12">
+        <v>0.1618389837063175</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.06395099999999999</v>
+      </c>
+      <c r="N12">
+        <v>0.191853</v>
+      </c>
+      <c r="O12">
+        <v>0.0003682085060634768</v>
+      </c>
+      <c r="P12">
+        <v>0.0003682085060634769</v>
+      </c>
+      <c r="Q12">
+        <v>0.6865456620619999</v>
+      </c>
+      <c r="R12">
+        <v>6.178910958557999</v>
+      </c>
+      <c r="S12">
+        <v>5.959049041333452E-05</v>
+      </c>
+      <c r="T12">
+        <v>5.959049041333453E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>10.73549533333333</v>
+      </c>
+      <c r="H13">
+        <v>32.206486</v>
+      </c>
+      <c r="I13">
+        <v>0.1618389837063174</v>
+      </c>
+      <c r="J13">
+        <v>0.1618389837063175</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>62.24619000000001</v>
+      </c>
+      <c r="N13">
+        <v>186.73857</v>
+      </c>
+      <c r="O13">
+        <v>0.3583927792848171</v>
+      </c>
+      <c r="P13">
+        <v>0.3583927792848171</v>
+      </c>
+      <c r="Q13">
+        <v>668.24368226278</v>
+      </c>
+      <c r="R13">
+        <v>6014.19314036502</v>
+      </c>
+      <c r="S13">
+        <v>0.05800192316713733</v>
+      </c>
+      <c r="T13">
+        <v>0.05800192316713734</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.131391333333333</v>
+      </c>
+      <c r="H14">
+        <v>6.394174</v>
+      </c>
+      <c r="I14">
+        <v>0.03213100062519576</v>
+      </c>
+      <c r="J14">
+        <v>0.03213100062519577</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>23.463916</v>
+      </c>
+      <c r="N14">
+        <v>70.39174800000001</v>
+      </c>
+      <c r="O14">
+        <v>0.1350973942042957</v>
+      </c>
+      <c r="P14">
+        <v>0.1350973942042957</v>
+      </c>
+      <c r="Q14">
+        <v>50.01078720846133</v>
+      </c>
+      <c r="R14">
+        <v>450.097084876152</v>
+      </c>
+      <c r="S14">
+        <v>0.004340814457640543</v>
+      </c>
+      <c r="T14">
+        <v>0.004340814457640544</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.131391333333333</v>
+      </c>
+      <c r="H15">
+        <v>6.394174</v>
+      </c>
+      <c r="I15">
+        <v>0.03213100062519576</v>
+      </c>
+      <c r="J15">
+        <v>0.03213100062519577</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>87.90742766666666</v>
+      </c>
+      <c r="N15">
+        <v>263.722283</v>
+      </c>
+      <c r="O15">
+        <v>0.5061416180048238</v>
+      </c>
+      <c r="P15">
+        <v>0.5061416180048238</v>
+      </c>
+      <c r="Q15">
+        <v>187.3651294643602</v>
+      </c>
+      <c r="R15">
+        <v>1686.286165179242</v>
+      </c>
+      <c r="S15">
+        <v>0.01626283664455059</v>
+      </c>
+      <c r="T15">
+        <v>0.01626283664455059</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.9962249078425</v>
-      </c>
-      <c r="H10">
-        <v>1.9962249078425</v>
-      </c>
-      <c r="I10">
-        <v>0.03116094212622382</v>
-      </c>
-      <c r="J10">
-        <v>0.03116094212622382</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>25.4230883507567</v>
-      </c>
-      <c r="N10">
-        <v>25.4230883507567</v>
-      </c>
-      <c r="O10">
-        <v>0.1952975307484549</v>
-      </c>
-      <c r="P10">
-        <v>0.1952975307484549</v>
-      </c>
-      <c r="Q10">
-        <v>50.75020220006103</v>
-      </c>
-      <c r="R10">
-        <v>50.75020220006103</v>
-      </c>
-      <c r="S10">
-        <v>0.006085655053047018</v>
-      </c>
-      <c r="T10">
-        <v>0.006085655053047018</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.131391333333333</v>
+      </c>
+      <c r="H16">
+        <v>6.394174</v>
+      </c>
+      <c r="I16">
+        <v>0.03213100062519576</v>
+      </c>
+      <c r="J16">
+        <v>0.03213100062519577</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.06395099999999999</v>
+      </c>
+      <c r="N16">
+        <v>0.191853</v>
+      </c>
+      <c r="O16">
+        <v>0.0003682085060634768</v>
+      </c>
+      <c r="P16">
+        <v>0.0003682085060634769</v>
+      </c>
+      <c r="Q16">
+        <v>0.136304607158</v>
+      </c>
+      <c r="R16">
+        <v>1.226741464422</v>
+      </c>
+      <c r="S16">
+        <v>1.183090773852797E-05</v>
+      </c>
+      <c r="T16">
+        <v>1.183090773852798E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.131391333333333</v>
+      </c>
+      <c r="H17">
+        <v>6.394174</v>
+      </c>
+      <c r="I17">
+        <v>0.03213100062519576</v>
+      </c>
+      <c r="J17">
+        <v>0.03213100062519577</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>62.24619000000001</v>
+      </c>
+      <c r="N17">
+        <v>186.73857</v>
+      </c>
+      <c r="O17">
+        <v>0.3583927792848171</v>
+      </c>
+      <c r="P17">
+        <v>0.3583927792848171</v>
+      </c>
+      <c r="Q17">
+        <v>132.67098989902</v>
+      </c>
+      <c r="R17">
+        <v>1194.03890909118</v>
+      </c>
+      <c r="S17">
+        <v>0.0115155186152661</v>
+      </c>
+      <c r="T17">
+        <v>0.01151551861526611</v>
       </c>
     </row>
   </sheetData>
